--- a/docs/assets/disciplinas/LOQ4053.xlsx
+++ b/docs/assets/disciplinas/LOQ4053.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Introduzir e estabelecer aos alunos os princípios básicos a serem utilizados em todos os processos que envolvam a conservação de massa e energia. Esta disciplina propicia a realização de balanços globais de massa e energia em diferentes processos químicos evidenciando a importância da aplicação desta metodologia no projeto e otimização de processos químicos industriais.</t>
+    <t>5817045 - Elisângela de Jesus Cândido Moraes</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5817045 - Elisângela de Jesus Cândido Moraes</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Introdução aos cálculos em Engenharia Química; Balanços materiais; Balanços de energia; Balanços material e energético combinados; Balanços em processos no estado transiente.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1 - Balanços Materiais- Introdução aos Balanços Materiais- Balanços Materiais que não envolvem reações químicas.- Balanços Materiais envolvendo reações químicas- Balanços Materiais com recirculação (reciclo e Bypass).2 - Balanços de Energia- Definições e conceitos. Formas de energia, calor, entalpia, valores de entalpia e capacidade calorífica.- Balanços de energia que não envolvem reações químicas.- Balanços de energia envolvendo reações químicas.3 - Balanços de Massa e de Energia Combinados- Aplicação combinada dos balanços de massa e energia em processos tais como umidificação, dissolução, processos de mistura, etc.4 - Balanços de Massa e de Energia em Processos de Regime Transiente</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,32 +106,24 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Provas escritas; -participação e conteúdo de trabalho e seminário;</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média Final = (Prova1 + 2xProva2 + Nota de Trabalho) / 4
 Média final mínima de aprovação = 5,0</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>(Prova escrita + Média Final)/2
 Nota Final mínima para aprovação= 5,0</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>HIMMELBLAU, David M.  Eng. Química princípios e cálculos.  7. ed. LTC Editora,2006.
-GOMIDE, R.  Estequiometria Industrial. 3.ed. São Paulo: Ed. do Autor, 1984. 
-FELDER, R.M; ROUSSEAU, R.W. Princípios elementares dos processos químicos. 3. ed. Rio de Janeiro: LTC Editora, 2005
-MOUYEN, O.A.; WATSON, K. M. AND RAGATZ, R.A.  Princípios dos processos químicos.  Lisboa: Lopes da Silva Editora, 2005. v. 1 
-CREMASCO, M. A. Fundamentos de transferência de massa. 1.ed. Campinas: Editora da UNICAMP, 1998.
-BRASIL, N. I. Introdução à Engenharia Química.  2. ed. Rio de Janeiro: Editora Interciência , 2004.</t>
   </si>
 </sst>
 </file>
@@ -493,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,34 +610,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -665,64 +654,53 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4053.xlsx
+++ b/docs/assets/disciplinas/LOQ4053.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,22 +67,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Introduzir e estabelecer aos alunos os princípios básicos a serem utilizados em todos os processos que envolvam a conservação de massa e energia. Esta disciplina propicia a realização de balanços globais de massa e energia em diferentes processos químicos evidenciando a importância da aplicação desta metodologia no projeto e otimização de processos químicos industriais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>And introduce students to the basic setting to be used in all cases involving the conservation of mass and energy principles. This course provides the realization of global balances of mass and energy in different chemical processes highlighting the importance of using this methodology in the design and optimization of industrial chemical processes.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5817045 - Elisângela de Jesus Cândido Moraes</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>And introduce students to the basic setting to be used in all cases involving the conservation of mass and energy principles. This course provides the realization of global balances of mass and energy in different chemical processes highlighting the importance of using this methodology in the design and optimization of industrial chemical processes.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Introdução aos cálculos em Engenharia Química; Balanços materiais; Balanços de energia; Balanços material e energético combinados; Balanços em processos no estado transiente.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1 - Balanços Materiais- Introdução aos Balanços Materiais- Balanços Materiais que não envolvem reações químicas.- Balanços Materiais envolvendo reações químicas- Balanços Materiais com recirculação (reciclo e Bypass).2 - Balanços de Energia- Definições e conceitos. Formas de energia, calor, entalpia, valores de entalpia e capacidade calorífica.- Balanços de energia que não envolvem reações químicas.- Balanços de energia envolvendo reações químicas.3 - Balanços de Massa e de Energia Combinados- Aplicação combinada dos balanços de massa e energia em processos tais como umidificação, dissolução, processos de mistura, etc.4 - Balanços de Massa e de Energia em Processos de Regime Transiente</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,24 +112,32 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Provas escritas; -participação e conteúdo de trabalho e seminário;</t>
+  </si>
+  <si>
     <t>Critério:</t>
-  </si>
-  <si>
-    <t>Provas escritas; -participação e conteúdo de trabalho e seminário;</t>
-  </si>
-  <si>
-    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média Final = (Prova1 + 2xProva2 + Nota de Trabalho) / 4
 Média final mínima de aprovação = 5,0</t>
   </si>
   <si>
-    <t>Bibliografia:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>(Prova escrita + Média Final)/2
 Nota Final mínima para aprovação= 5,0</t>
+  </si>
+  <si>
+    <t>Bibliografia:</t>
+  </si>
+  <si>
+    <t>HIMMELBLAU, David M.  Eng. Química princípios e cálculos.  7. ed. LTC Editora,2006.
+GOMIDE, R.  Estequiometria Industrial. 3.ed. São Paulo: Ed. do Autor, 1984. 
+FELDER, R.M; ROUSSEAU, R.W. Princípios elementares dos processos químicos. 3. ed. Rio de Janeiro: LTC Editora, 2005
+MOUYEN, O.A.; WATSON, K. M. AND RAGATZ, R.A.  Princípios dos processos químicos.  Lisboa: Lopes da Silva Editora, 2005. v. 1 
+CREMASCO, M. A. Fundamentos de transferência de massa. 1.ed. Campinas: Editora da UNICAMP, 1998.
+BRASIL, N. I. Introdução à Engenharia Química.  2. ed. Rio de Janeiro: Editora Interciência , 2004.</t>
   </si>
 </sst>
 </file>
@@ -479,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -610,37 +624,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -654,53 +665,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
